--- a/Wave 5_React_Tracker_Gayathri Shanmugam.xlsx
+++ b/Wave 5_React_Tracker_Gayathri Shanmugam.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>React Basics (Architecture, Concepts, Lifecycle)</t>
   </si>
@@ -60,13 +60,13 @@
     <t>Inbox Mails</t>
   </si>
   <si>
-    <t>InProgress</t>
-  </si>
-  <si>
     <t>Name: Gayathri Shanmugam</t>
   </si>
   <si>
     <t>Git URL: https://github.com/gayathres/reactassignment.git</t>
+  </si>
+  <si>
+    <t>Inprogress</t>
   </si>
 </sst>
 </file>
@@ -125,8 +125,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,7 +399,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -409,8 +409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -429,16 +429,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="6"/>
+      <c r="A1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="7"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="6"/>
+      <c r="A2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="7"/>
     </row>
     <row r="3" spans="1:12" s="4" customFormat="1" ht="30">
       <c r="A3" s="5" t="s">
@@ -479,7 +479,7 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>42605</v>
       </c>
       <c r="B4" t="s">
@@ -498,9 +498,11 @@
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="I4" s="3"/>
     </row>
   </sheetData>

--- a/Wave 5_React_Tracker_Gayathri Shanmugam.xlsx
+++ b/Wave 5_React_Tracker_Gayathri Shanmugam.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>React Basics (Architecture, Concepts, Lifecycle)</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>Git URL: https://github.com/gayathres/reactassignment.git</t>
-  </si>
-  <si>
-    <t>Inprogress</t>
   </si>
 </sst>
 </file>
@@ -399,7 +396,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -409,8 +406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -500,8 +497,8 @@
       <c r="G4" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>15</v>
+      <c r="H4" t="s">
+        <v>10</v>
       </c>
       <c r="I4" s="3"/>
     </row>

--- a/Wave 5_React_Tracker_Gayathri Shanmugam.xlsx
+++ b/Wave 5_React_Tracker_Gayathri Shanmugam.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>React Basics (Architecture, Concepts, Lifecycle)</t>
   </si>
@@ -396,7 +396,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -406,8 +406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -500,7 +500,15 @@
       <c r="H4" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="3"/>
+      <c r="I4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
